--- a/行业指标/新建 Microsoft Excel 工作表.xlsx
+++ b/行业指标/新建 Microsoft Excel 工作表.xlsx
@@ -37,11 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个体：营收、已售存货成本、人工成本、租金成本、净利润、营销
-行业：收入值（同比增长率）、GDP增速、人均可支配收入及消费；企业数量、从业人数；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">成本结构固定、品牌无力支撑区域扩张；
 人工成本高、管理难度大；
 利润率低、竞品多，客户粘性差；
@@ -54,6 +49,11 @@
 两大模式-1.快餐、外卖的产品模式 2.社交、休闲的体验模式；
 正餐、连锁化发展；
 营改增、食品安全；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个体：营收、已售存货成本、人工成本、租金成本、净利润、营销
+行业：收入值（同比增长率）、GDP增速、人均可支配收入及消费；企业数量、从业人数；人口数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,7 +144,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -159,7 +159,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,7 +536,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:J6"/>
+      <selection activeCell="C3" sqref="C3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -598,20 +598,20 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -622,14 +622,14 @@
     <row r="4" spans="1:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="4"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -716,6 +716,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:J4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:J8"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:J6"/>
     <mergeCell ref="L1:Q2"/>
     <mergeCell ref="L3:Q4"/>
     <mergeCell ref="L5:Q6"/>
@@ -724,14 +732,6 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:J4"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:J8"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:J6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
